--- a/biology/Zoologie/Acanthaspis/Acanthaspis.xlsx
+++ b/biology/Zoologie/Acanthaspis/Acanthaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthaspis  est un genre d'insectes hémiptères hétéroptères (punaises) de la famille des réduves. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 décembre 2019) :
 Acanthaspis alagiriensis Murugan &amp; Livingstone, 1994
 Acanthaspis alluaudi Jeannel, 1919
 Acanthaspis angalia Jeannel, 1917
@@ -670,9 +684,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acanthaspis tire son nom du grec ancien ἄκανθα, ákantha, « épine », et ἀσπίς, aspís, « bouclier »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthaspis tire son nom du grec ancien ἄκανθα, ákantha, « épine », et ἀσπίς, aspís, « bouclier ».
 </t>
         </is>
       </c>
@@ -701,7 +717,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C.-J.-B. Amyot et Audinet Serville, Histoire naturelle des insectes. Hémiptères., Paris, Librairie encyclopédique de Roret, 1843 (OCLC 13211865, LCCN 06029436, DOI 10.5962/BHL.TITLE.8471)</t>
         </is>
